--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -361,7 +361,7 @@
     <col min="43" max="43" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,8 +494,14 @@
       <c r="AR1" s="1">
         <v>43935</v>
       </c>
+      <c r="AS1" s="1">
+        <v>43936</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43937</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -627,6 +633,12 @@
       </c>
       <c r="AR2">
         <v>596</v>
+      </c>
+      <c r="AS2">
+        <v>596</v>
+      </c>
+      <c r="AT2">
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS3" sqref="AS3"/>
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,9 +359,10 @@
     <col min="1" max="41" width="11.5703125" customWidth="1"/>
     <col min="42" max="42" width="10.42578125" customWidth="1"/>
     <col min="43" max="43" width="10.140625" customWidth="1"/>
+    <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -500,8 +501,14 @@
       <c r="AT1" s="1">
         <v>43937</v>
       </c>
+      <c r="AU1" s="1">
+        <v>43938</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>43939</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,6 +646,12 @@
       </c>
       <c r="AT2">
         <v>631</v>
+      </c>
+      <c r="AU2">
+        <v>666</v>
+      </c>
+      <c r="AV2">
+        <v>686</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AY2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,7 +362,7 @@
     <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,8 +507,17 @@
       <c r="AV1" s="1">
         <v>43939</v>
       </c>
+      <c r="AW1" s="1">
+        <v>43940</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>43941</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>43942</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -652,6 +661,15 @@
       </c>
       <c r="AV2">
         <v>686</v>
+      </c>
+      <c r="AW2">
+        <v>709</v>
+      </c>
+      <c r="AX2">
+        <v>787</v>
+      </c>
+      <c r="AY2">
+        <v>840</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+      <selection activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,7 +362,7 @@
     <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -516,8 +516,11 @@
       <c r="AY1" s="1">
         <v>43942</v>
       </c>
+      <c r="AZ1" s="1">
+        <v>43943</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -670,6 +673,9 @@
       </c>
       <c r="AY2">
         <v>840</v>
+      </c>
+      <c r="AZ2">
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
+++ b/COVID19-Argentina/Data_XLSX/COVID19_Evolution_Recovered.xlsx
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:BA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="AZ2" sqref="AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -362,7 +362,7 @@
     <col min="46" max="46" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,8 +519,11 @@
       <c r="AZ1" s="1">
         <v>43943</v>
       </c>
+      <c r="BA1" s="1">
+        <v>43944</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -676,6 +679,9 @@
       </c>
       <c r="AZ2">
         <v>872</v>
+      </c>
+      <c r="BA2">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
